--- a/AutoBM/Input.xlsx
+++ b/AutoBM/Input.xlsx
@@ -1,34 +1,103 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sora.kim\Desktop\AutoBM\AutoBM\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E88CFFB-BCA7-4DD8-BBDD-7C341778AA12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="990" yWindow="1020" windowWidth="27060" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Input.xlsx" sheetId="1" r:id="rId2"/>
+    <sheet name="Input.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725" fullCalcOnLoad="true"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
   <si>
     <t>Reference ItemCode</t>
   </si>
   <si>
     <t>New ItemCode</t>
+  </si>
+  <si>
+    <t>WEAPON_UNIQUE_SELECT_ITEM_STAR_1_0_GACHA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WEAPON_UNIQUE_SELECT_ITEM_STAR_2_0_GACHA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PACKAGE_PAY_WELCOME_AUGMENTATION_0111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARTIFACT_SELECT_ITEM_EVENT_ONLY_0_GACHA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC_WEAPON_UNIQUE_SELECT_ITEM_0_GACHA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARTIFACT_SELECT_ITEM_EVENT_ONLY_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PACKAGE_PAY_SUMMER_FREE_AUGMENTATION_LUCKY_3_210803</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WEAPON_UNIQUE_SELECT_ITEM_STAR_2_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WEAPON_UNIQUE_SELECT_ITEM_STAR_1_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC_WEAPON_UNIQUE_SELECT_ITEM_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -54,34 +123,357 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <dimension ref="A1:B1"/>
-  <sheetFormatPr defaultRowHeight="15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="20.7109375" customWidth="true"/>
+    <col min="1" max="1" width="61.28515625" customWidth="1"/>
+    <col min="2" max="2" width="51.7109375" customWidth="1"/>
+    <col min="3" max="6" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -89,6 +481,78 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/AutoBM/Input.xlsx
+++ b/AutoBM/Input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sora.kim\Desktop\AutoBM\AutoBM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E88CFFB-BCA7-4DD8-BBDD-7C341778AA12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A226F2D-0D44-4580-A3C7-8EFE03F35163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="990" yWindow="1020" windowWidth="27060" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="645" yWindow="675" windowWidth="27060" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input.xlsx" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>Reference ItemCode</t>
   </si>
@@ -63,19 +63,38 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PACKAGE_PAY_SUMMER_FREE_AUGMENTATION_LUCKY_3_210803</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>WEAPON_UNIQUE_SELECT_ITEM_STAR_2_0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>WEAPON_UNIQUE_SELECT_ITEM_STAR_1_0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NPC_WEAPON_UNIQUE_SELECT_ITEM_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon/Item/WEAPON_UNIQUE_SELECT_ITEM_STAR_1_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon/Item/PACKAGE_PAY_SUMMER_FREE_AUGMENTATION_LUCKY_3_210803</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOOSTER_GOLD_TEST_MISSION</t>
+  </si>
+  <si>
+    <t>BOOSTER_GOLD_TEST_MISSION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC_WEAPON_UNIQUE_SELECT_ITEM_0_GACHA3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC_WEAPON_UNIQUE_SELECT_ITEM_0_GACHA4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC_WEAPON_UNIQUE_SELECT_ITEM_0_GACHA5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -460,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,7 +510,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
@@ -499,7 +518,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>4</v>
@@ -515,7 +534,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>6</v>
@@ -528,7 +547,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>4</v>
@@ -536,7 +555,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>6</v>
@@ -548,6 +567,33 @@
       </c>
       <c r="B11" s="3" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/AutoBM/Input.xlsx
+++ b/AutoBM/Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sora.kim\Desktop\AutoBM\AutoBM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A226F2D-0D44-4580-A3C7-8EFE03F35163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{413B691C-470E-4A99-9584-831FA8F0F5DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="645" yWindow="675" windowWidth="27060" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Reference ItemCode</t>
   </si>
@@ -39,62 +39,42 @@
     <t>New ItemCode</t>
   </si>
   <si>
-    <t>WEAPON_UNIQUE_SELECT_ITEM_STAR_1_0_GACHA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WEAPON_UNIQUE_SELECT_ITEM_STAR_2_0_GACHA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PACKAGE_PAY_WELCOME_AUGMENTATION_0111</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ARTIFACT_SELECT_ITEM_EVENT_ONLY_0_GACHA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NPC_WEAPON_UNIQUE_SELECT_ITEM_0_GACHA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ARTIFACT_SELECT_ITEM_EVENT_ONLY_0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WEAPON_UNIQUE_SELECT_ITEM_STAR_2_0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NPC_WEAPON_UNIQUE_SELECT_ITEM_0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Icon/Item/WEAPON_UNIQUE_SELECT_ITEM_STAR_1_0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Icon/Item/PACKAGE_PAY_SUMMER_FREE_AUGMENTATION_LUCKY_3_210803</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOOSTER_GOLD_TEST_MISSION</t>
-  </si>
-  <si>
-    <t>BOOSTER_GOLD_TEST_MISSION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NPC_WEAPON_UNIQUE_SELECT_ITEM_0_GACHA3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NPC_WEAPON_UNIQUE_SELECT_ITEM_0_GACHA4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NPC_WEAPON_UNIQUE_SELECT_ITEM_0_GACHA5</t>
+    <t>PACKAGE_PAY_INFINITYSTONE_SUMMER</t>
+  </si>
+  <si>
+    <t>Icon/Item/PACKAGE_WORLDBOSS_POSEIDON_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEST2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEST1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQUIP_SELECT_DRAGON_ORB_6T_3OPTION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEST3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RUNE_AGITATION_40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEST4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WEAPON_KNIGHT_8_4_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEST5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -482,7 +462,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,99 +482,71 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="B7" s="3"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="B15" s="3"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="B16" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/AutoBM/Input.xlsx
+++ b/AutoBM/Input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sora.kim\Desktop\AutoBM\AutoBM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{413B691C-470E-4A99-9584-831FA8F0F5DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2389F172-5ABE-4F7F-9418-AB098C3CFD4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="645" yWindow="675" windowWidth="27060" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32775" yWindow="4935" windowWidth="9705" windowHeight="6930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input.xlsx" sheetId="1" r:id="rId1"/>
@@ -42,10 +42,6 @@
     <t>PACKAGE_PAY_INFINITYSTONE_SUMMER</t>
   </si>
   <si>
-    <t>Icon/Item/PACKAGE_WORLDBOSS_POSEIDON_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TEST2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -75,6 +71,10 @@
   </si>
   <si>
     <t>TEST5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PACKAGE_WORLDBOSS_POSEIDON_3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -462,7 +462,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,39 +485,39 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">

--- a/AutoBM/Input.xlsx
+++ b/AutoBM/Input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sora.kim\Desktop\AutoBM\AutoBM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2389F172-5ABE-4F7F-9418-AB098C3CFD4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1453F0B4-BBBA-476E-A7B4-9141DDA1360D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32775" yWindow="4935" windowWidth="9705" windowHeight="6930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input.xlsx" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Reference ItemCode</t>
   </si>
@@ -76,6 +76,21 @@
   <si>
     <t>PACKAGE_WORLDBOSS_POSEIDON_3</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BANANA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POTATO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEST6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RUNE_FLEXIBILITY_40</t>
   </si>
 </sst>
 </file>
@@ -459,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,32 +536,45 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="B7" s="3"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
+      <c r="A11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
       <c r="B14" s="3"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B16" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/AutoBM/Input.xlsx
+++ b/AutoBM/Input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sora.kim\Desktop\AutoBM\AutoBM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1453F0B4-BBBA-476E-A7B4-9141DDA1360D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE24DFB-7A93-418B-939E-C89A6507A646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input.xlsx" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>Reference ItemCode</t>
   </si>
@@ -91,6 +91,18 @@
   </si>
   <si>
     <t>RUNE_FLEXIBILITY_40</t>
+  </si>
+  <si>
+    <t>POTATO2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POTATO3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POTATOED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -477,7 +489,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,6 +569,9 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -567,8 +582,12 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
+      <c r="A13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>

--- a/AutoBM/Input.xlsx
+++ b/AutoBM/Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sora.kim\Desktop\AutoBM\AutoBM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE24DFB-7A93-418B-939E-C89A6507A646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C637F428-5E96-4BB8-867A-DC191C81E05E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Reference ItemCode</t>
   </si>
@@ -39,69 +39,29 @@
     <t>New ItemCode</t>
   </si>
   <si>
-    <t>PACKAGE_PAY_INFINITYSTONE_SUMMER</t>
-  </si>
-  <si>
-    <t>TEST2</t>
+    <t>PACKAGE_PAY_TECHNOMAGIC_REINFORCE_220222</t>
+  </si>
+  <si>
+    <t>PACKAGE_PAY_TECHNOMAGIC_GEAR_220222</t>
+  </si>
+  <si>
+    <t>PACKAGE_PAY_THANKSGIVING_AWAKEN_WEAPON_01_210608</t>
+  </si>
+  <si>
+    <t>PACKAGE_PAY_AWAKEN_WEAPON_220222</t>
+  </si>
+  <si>
+    <t>PACKAGE_PAY_THANKSGIVING_AWAKEN_TREASURE_01_210608</t>
+  </si>
+  <si>
+    <t>PACKAGE_PAY_AWAKEN_TREASURE_220222</t>
+  </si>
+  <si>
+    <t>PACKAGE_PAY_TECHNOMAGIC_GEAR_01_210511</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TEST1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EQUIP_SELECT_DRAGON_ORB_6T_3OPTION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TEST3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RUNE_AGITATION_40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TEST4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WEAPON_KNIGHT_8_4_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TEST5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PACKAGE_WORLDBOSS_POSEIDON_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BANANA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POTATO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TEST6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RUNE_FLEXIBILITY_40</t>
-  </si>
-  <si>
-    <t>POTATO2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POTATO3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POTATOED</t>
+    <t>PACKAGE_PAY_THANKSGIVING_TECHNOMAGIC_UPGRADE_210622</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -489,7 +449,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,15 +469,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
@@ -525,69 +485,47 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="A7" s="3"/>
       <c r="B7" s="3"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="A8" s="3"/>
       <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
-      <c r="B10" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="B10" s="3"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
